--- a/data/trans_orig/P1803-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9AA8476-B9E0-4FD1-9D93-E6F0E03DF0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A00E9FF-641D-494F-B327-ED9801C0DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCF40190-D453-4B2E-B3F6-4BE75BB569AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6D7CA1-5834-455D-B5AA-0576DCDBE6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,16 +75,16 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>12,16%</t>
@@ -93,10 +93,10 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>93,96%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>93,83%</t>
@@ -117,16 +117,16 @@
     <t>87,84%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,55 +195,55 @@
     <t>4,26%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -252,55 +252,55 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -312,388 +312,403 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>8,21%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>91,33%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>84,98%</t>
   </si>
   <si>
     <t>92,22%</t>
@@ -702,16 +717,13 @@
     <t>90,37%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>89,48%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>88,01%</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35405CFC-F202-463C-AD80-BFE8019B080C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51673FA-422A-440C-B08B-F76156BD32FD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2186,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A20B33-6002-443E-988F-0E9F114D6F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D105A275-069B-476B-A42E-D7BC36336500}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2480,13 +2492,13 @@
         <v>49940</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -2495,13 +2507,13 @@
         <v>80318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2528,13 @@
         <v>519445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>907</v>
@@ -2531,13 +2543,13 @@
         <v>542479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>1488</v>
@@ -2546,13 +2558,13 @@
         <v>1061924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2632,13 @@
         <v>119133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -2635,13 +2647,13 @@
         <v>92102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -2650,13 +2662,13 @@
         <v>211234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2683,13 @@
         <v>920115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>1383</v>
@@ -2686,13 +2698,13 @@
         <v>967372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>2287</v>
@@ -2701,13 +2713,13 @@
         <v>1887488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2787,13 @@
         <v>51912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -2790,13 +2802,13 @@
         <v>76561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -2805,13 +2817,13 @@
         <v>128473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2838,13 @@
         <v>676860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>935</v>
@@ -2841,13 +2853,13 @@
         <v>797185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1563</v>
@@ -2856,13 +2868,13 @@
         <v>1474045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2942,13 @@
         <v>112019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -2945,13 +2957,13 @@
         <v>137272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
         <v>316</v>
@@ -2960,13 +2972,13 @@
         <v>249292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2993,13 @@
         <v>853384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>1360</v>
@@ -2996,13 +3008,13 @@
         <v>1012434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>2251</v>
@@ -3011,13 +3023,13 @@
         <v>1865817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3097,13 @@
         <v>323291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>551</v>
@@ -3100,13 +3112,13 @@
         <v>366373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -3115,13 +3127,13 @@
         <v>689664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3148,13 @@
         <v>3061937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>4810</v>
@@ -3151,13 +3163,13 @@
         <v>3439705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>7923</v>
@@ -3166,13 +3178,13 @@
         <v>6501642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1803-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A00E9FF-641D-494F-B327-ED9801C0DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1888D7DB-5A7A-4B53-AC9A-5387CC5527E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6D7CA1-5834-455D-B5AA-0576DCDBE6FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB75666D-0026-4D26-9DDA-B4F4E4BBFE1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,25 +78,25 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +105,7 @@
     <t>93,96%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>97,46%</t>
@@ -114,31 +114,31 @@
     <t>93,83%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -147,19 +147,19 @@
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>96,57%</t>
@@ -168,139 +168,139 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>98,0%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,16 +309,16 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>9,91%</t>
@@ -330,394 +330,400 @@
     <t>6,09%</t>
   </si>
   <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
   </si>
   <si>
     <t>90,41%</t>
@@ -1135,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51673FA-422A-440C-B08B-F76156BD32FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C8FAAB-1975-48A9-A8C4-633235494B59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D105A275-069B-476B-A42E-D7BC36336500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6814A31-FC69-4872-B5B0-089A809820F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3115,10 +3121,10 @@
         <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -3127,13 +3133,13 @@
         <v>689664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>3061937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>4810</v>
@@ -3163,13 +3169,13 @@
         <v>3439705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>7923</v>
@@ -3178,10 +3184,10 @@
         <v>6501642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>161</v>

--- a/data/trans_orig/P1803-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD4AD9C-63EC-44A2-97F5-03C9F828F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DBE093-86B0-4F2C-A5B9-B046ED214A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37CBB476-D725-42CE-BA82-FBDF2F2C7C26}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{87AD4796-2499-4638-870B-C7BBF18DB2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="227">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>991.0</t>
@@ -77,16 +77,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,39 +95,15 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -146,27 +119,15 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -200,28 +161,10 @@
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -239,673 +182,544 @@
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33513B54-05B5-463A-8301-F918C2FEAEAA}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632E803D-CBD5-4BEB-A966-D452A2832B9C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1435,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1450,31 +1264,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1483,7 +1297,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1492,49 +1306,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1543,43 +1357,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1603,10 +1417,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1618,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1635,52 +1449,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1689,7 +1503,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1698,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1713,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1728,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1749,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1764,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1779,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1809,10 +1623,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1824,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1841,52 +1655,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1895,7 +1709,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1904,29 +1718,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1934,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1955,29 +1769,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -1985,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2015,10 +1829,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2030,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2047,52 +1861,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2101,7 +1915,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2110,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2125,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2140,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2161,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2176,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2191,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -2221,10 +2035,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -2236,10 +2050,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2253,52 +2067,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2307,7 +2121,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2316,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2331,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2346,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2367,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2382,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2397,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,10 +2226,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2427,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2442,10 +2256,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2458,222 +2272,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2686,8 +2293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46138C5A-9732-4C3C-AE23-B1356254F3D5}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD663-EEBA-4962-8009-AC477E8681CF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2703,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2804,46 +2411,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2852,7 +2459,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2861,14 +2468,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2876,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2891,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2912,14 +2519,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2927,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2942,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2972,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2987,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -3004,52 +2611,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -3058,7 +2665,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3067,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3082,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3097,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3118,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3133,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3148,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3178,10 +2785,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3193,10 +2800,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -3210,52 +2817,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -3264,7 +2871,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3273,14 +2880,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3288,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3303,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3324,14 +2931,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3339,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3354,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3384,10 +2991,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3399,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3416,52 +3023,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3470,7 +3077,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3479,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3494,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3509,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3530,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3545,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3560,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3590,10 +3197,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3605,10 +3212,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3622,52 +3229,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3676,7 +3283,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3685,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3700,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3715,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3736,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3751,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3766,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,10 +3388,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3796,10 +3403,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3811,10 +3418,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3827,222 +3434,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4055,8 +3455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA41FBFF-ABEC-4C86-8CE8-67C6F0DD2521}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE5A1EB-C66A-4FEC-8CF5-11E36CCE5B32}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4072,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4179,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4194,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4209,115 +3609,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>7043</v>
+        <v>26173</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>6995</v>
+        <v>24132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>14038</v>
+        <v>50305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>106</v>
+        <v>627</v>
       </c>
       <c r="D6" s="7">
-        <v>109503</v>
+        <v>648627</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
-        <v>108</v>
+        <v>642</v>
       </c>
       <c r="I6" s="7">
-        <v>106365</v>
+        <v>648707</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
-        <v>214</v>
+        <v>1269</v>
       </c>
       <c r="N6" s="7">
-        <v>215868</v>
+        <v>1297334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,10 +3726,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4341,10 +3741,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4356,10 +3756,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4373,7 +3773,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4385,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4400,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4415,115 +3815,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>19130</v>
+        <v>43528</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7">
-        <v>17137</v>
+        <v>49354</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M9" s="7">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="N9" s="7">
-        <v>36268</v>
+        <v>92881</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>521</v>
+        <v>912</v>
       </c>
       <c r="D10" s="7">
-        <v>539124</v>
+        <v>978903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
-        <v>534</v>
+        <v>930</v>
       </c>
       <c r="I10" s="7">
-        <v>542342</v>
+        <v>993559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
-        <v>1055</v>
+        <v>1842</v>
       </c>
       <c r="N10" s="7">
-        <v>1081465</v>
+        <v>1972463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4547,10 +3947,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4562,10 +3962,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4579,7 +3979,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4591,14 +3991,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -4606,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4621,115 +4021,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>43528</v>
+        <v>26712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>49354</v>
+        <v>39170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>92881</v>
+        <v>65881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>912</v>
+        <v>672</v>
       </c>
       <c r="D14" s="7">
-        <v>978903</v>
+        <v>732840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
-        <v>930</v>
+        <v>699</v>
       </c>
       <c r="I14" s="7">
-        <v>993559</v>
+        <v>745841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>1842</v>
+        <v>1371</v>
       </c>
       <c r="N14" s="7">
-        <v>1972463</v>
+        <v>1478682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,10 +4138,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4753,10 +4153,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4768,10 +4168,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4785,7 +4185,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4797,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4812,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4827,115 +4227,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>26712</v>
+        <v>59093</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7">
+        <v>73</v>
+      </c>
+      <c r="I17" s="7">
+        <v>83051</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="7">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7">
-        <v>39170</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="7">
-        <v>61</v>
-      </c>
       <c r="N17" s="7">
-        <v>65881</v>
+        <v>142144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>672</v>
+        <v>878</v>
       </c>
       <c r="D18" s="7">
-        <v>732840</v>
+        <v>878474</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
-        <v>699</v>
+        <v>886</v>
       </c>
       <c r="I18" s="7">
-        <v>745841</v>
+        <v>960728</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
-        <v>1371</v>
+        <v>1764</v>
       </c>
       <c r="N18" s="7">
-        <v>1478682</v>
+        <v>1839202</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4959,10 +4359,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4974,10 +4374,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4991,7 +4391,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5003,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5018,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5033,115 +4433,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>59093</v>
+        <v>155505</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="I21" s="7">
-        <v>83051</v>
+        <v>195706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="N21" s="7">
-        <v>142144</v>
+        <v>351211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>878</v>
+        <v>3089</v>
       </c>
       <c r="D22" s="7">
-        <v>878474</v>
+        <v>3238845</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>886</v>
+        <v>3157</v>
       </c>
       <c r="I22" s="7">
-        <v>960728</v>
+        <v>3348836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1764</v>
+        <v>6246</v>
       </c>
       <c r="N22" s="7">
-        <v>1839202</v>
+        <v>6587681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5165,10 +4565,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5180,10 +4580,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5196,222 +4596,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>142</v>
-      </c>
-      <c r="D25" s="7">
-        <v>155505</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="7">
-        <v>181</v>
-      </c>
-      <c r="I25" s="7">
-        <v>195706</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="7">
-        <v>323</v>
-      </c>
-      <c r="N25" s="7">
-        <v>351211</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3089</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3238845</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3157</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3348836</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6246</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6587681</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5424,8 +4617,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA08CDE-6B34-4A73-B63A-CA04B373F1A8}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE61420-67F7-485C-BF7F-531FAB31EB3B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5441,7 +4634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5548,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5563,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5578,115 +4771,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>9850</v>
+        <v>39773</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I5" s="7">
-        <v>10497</v>
+        <v>57593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="N5" s="7">
-        <v>20347</v>
+        <v>97366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>109</v>
+        <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>92132</v>
+        <v>595668</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
-        <v>225</v>
+        <v>1132</v>
       </c>
       <c r="I6" s="7">
-        <v>120236</v>
+        <v>617657</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
-        <v>334</v>
+        <v>1822</v>
       </c>
       <c r="N6" s="7">
-        <v>212368</v>
+        <v>1213325</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5710,10 +4903,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675250</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5725,10 +4918,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1310691</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5742,7 +4935,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5754,13 +4947,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5769,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5784,115 +4977,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>30378</v>
+        <v>312399</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I9" s="7">
-        <v>49940</v>
+        <v>86546</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="N9" s="7">
-        <v>80318</v>
+        <v>398945</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>581</v>
+        <v>904</v>
       </c>
       <c r="D10" s="7">
-        <v>519445</v>
+        <v>880465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>907</v>
+        <v>1383</v>
       </c>
       <c r="I10" s="7">
-        <v>542479</v>
+        <v>871560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>1488</v>
+        <v>2287</v>
       </c>
       <c r="N10" s="7">
-        <v>1061924</v>
+        <v>1752026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,10 +5094,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5916,10 +5109,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592419</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5931,10 +5124,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1142242</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5948,7 +5141,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5960,14 +5153,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5975,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5990,115 +5183,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>119133</v>
+        <v>51101</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>92102</v>
+        <v>72043</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="N13" s="7">
-        <v>211234</v>
+        <v>123144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>904</v>
+        <v>628</v>
       </c>
       <c r="D14" s="7">
-        <v>920115</v>
+        <v>653579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
-        <v>1383</v>
+        <v>935</v>
       </c>
       <c r="I14" s="7">
-        <v>967372</v>
+        <v>860757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>2287</v>
+        <v>1563</v>
       </c>
       <c r="N14" s="7">
-        <v>1887488</v>
+        <v>1514336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6122,10 +5315,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6137,10 +5330,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1722</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1637480</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6154,7 +5347,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6166,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6181,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6196,115 +5389,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>51912</v>
+        <v>111235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="I17" s="7">
-        <v>76561</v>
+        <v>129709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="N17" s="7">
-        <v>128473</v>
+        <v>240944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>628</v>
+        <v>891</v>
       </c>
       <c r="D18" s="7">
-        <v>676860</v>
+        <v>815596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
-        <v>935</v>
+        <v>1360</v>
       </c>
       <c r="I18" s="7">
-        <v>797185</v>
+        <v>964545</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
-        <v>1563</v>
+        <v>2251</v>
       </c>
       <c r="N18" s="7">
-        <v>1474045</v>
+        <v>1780141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6328,10 +5521,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>873746</v>
+        <v>1094254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6343,10 +5536,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1722</v>
+        <v>2567</v>
       </c>
       <c r="N19" s="7">
-        <v>1602518</v>
+        <v>2021085</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6360,7 +5553,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6372,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6387,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6402,115 +5595,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="D21" s="7">
-        <v>112019</v>
+        <v>514507</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="I21" s="7">
-        <v>137272</v>
+        <v>345891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
-        <v>316</v>
+        <v>814</v>
       </c>
       <c r="N21" s="7">
-        <v>249292</v>
+        <v>860399</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>891</v>
+        <v>3113</v>
       </c>
       <c r="D22" s="7">
-        <v>853384</v>
+        <v>2945310</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="H22" s="7">
-        <v>1360</v>
+        <v>4810</v>
       </c>
       <c r="I22" s="7">
-        <v>1012434</v>
+        <v>3314519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
-        <v>2251</v>
+        <v>7923</v>
       </c>
       <c r="N22" s="7">
-        <v>1865817</v>
+        <v>6259828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6534,10 +5727,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5361</v>
       </c>
       <c r="I23" s="7">
-        <v>1149706</v>
+        <v>3660410</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6549,10 +5742,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2567</v>
+        <v>8737</v>
       </c>
       <c r="N23" s="7">
-        <v>2115109</v>
+        <v>7120227</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6565,222 +5758,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>263</v>
-      </c>
-      <c r="D25" s="7">
-        <v>323291</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="7">
-        <v>551</v>
-      </c>
-      <c r="I25" s="7">
-        <v>366373</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="7">
-        <v>814</v>
-      </c>
-      <c r="N25" s="7">
-        <v>689664</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3113</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3061937</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4810</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3439705</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7923</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6501642</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3806078</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8737</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7191306</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
